--- a/curation/draft/package12/R12_6MWT.xlsx
+++ b/curation/draft/package12/R12_6MWT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\package12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB031105-AFF2-4A59-B986-57E34B0BA329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DAC74E-E001-4706-81F7-3C437E0DF537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{CB90682E-B5D2-4F3C-A30B-8167A140F2EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CB90682E-B5D2-4F3C-A30B-8167A140F2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="BC_6MWT" sheetId="1" r:id="rId1"/>
@@ -1059,9 +1059,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18030E2E-FE19-40F7-9321-415FFA0E6A09}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1430,7 +1430,7 @@
       </c>
       <c r="Q9" s="10"/>
     </row>
-    <row r="10" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>46</v>
       </c>
@@ -2350,7 +2350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7D38B7-85C7-42C3-9CA2-CA2E5F60DFCE}">
   <dimension ref="A1:AG61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q62" sqref="Q62"/>
     </sheetView>
   </sheetViews>

--- a/curation/draft/package12/R12_6MWT.xlsx
+++ b/curation/draft/package12/R12_6MWT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\package12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DAC74E-E001-4706-81F7-3C437E0DF537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00174DB-80D9-4639-8E87-A5DACE01D909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CB90682E-B5D2-4F3C-A30B-8167A140F2EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{CB90682E-B5D2-4F3C-A30B-8167A140F2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="BC_6MWT" sheetId="1" r:id="rId1"/>
@@ -685,7 +685,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -742,6 +742,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1059,9 +1060,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18030E2E-FE19-40F7-9321-415FFA0E6A09}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6:H12"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2350,8 +2351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7D38B7-85C7-42C3-9CA2-CA2E5F60DFCE}">
   <dimension ref="A1:AG61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q62" sqref="Q62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2478,7 +2479,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>46</v>
       </c>
@@ -2561,7 +2562,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>46</v>
       </c>
@@ -2647,7 +2648,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>46</v>
       </c>
@@ -2736,7 +2737,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>46</v>
       </c>
@@ -2813,7 +2814,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>46</v>
       </c>
@@ -2901,7 +2902,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>46</v>
       </c>
@@ -2972,7 +2973,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>46</v>
       </c>
@@ -3043,7 +3044,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>46</v>
       </c>
@@ -3119,7 +3120,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>46</v>
       </c>
@@ -3169,15 +3170,15 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>41</v>
+      <c r="C11" s="26" t="s">
+        <v>115</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>102</v>
@@ -3231,7 +3232,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>46</v>
       </c>
@@ -3314,7 +3315,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>46</v>
       </c>
@@ -3400,7 +3401,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>46</v>
       </c>
@@ -3489,7 +3490,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>46</v>
       </c>
@@ -3566,7 +3567,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>46</v>
       </c>
@@ -3654,7 +3655,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>46</v>
       </c>
@@ -3725,7 +3726,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>46</v>
       </c>
@@ -3929,8 +3930,8 @@
       <c r="B21" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>41</v>
+      <c r="C21" s="26" t="s">
+        <v>115</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>102</v>
@@ -4682,8 +4683,8 @@
       <c r="B31" t="s">
         <v>133</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>41</v>
+      <c r="C31" s="26" t="s">
+        <v>115</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>102</v>
@@ -5435,8 +5436,8 @@
       <c r="B41" t="s">
         <v>134</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>41</v>
+      <c r="C41" s="26" t="s">
+        <v>115</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>102</v>
@@ -6188,8 +6189,8 @@
       <c r="B51" t="s">
         <v>135</v>
       </c>
-      <c r="C51" s="7" t="s">
-        <v>41</v>
+      <c r="C51" s="26" t="s">
+        <v>115</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>102</v>
@@ -6941,8 +6942,8 @@
       <c r="B61" t="s">
         <v>136</v>
       </c>
-      <c r="C61" s="7" t="s">
-        <v>41</v>
+      <c r="C61" s="26" t="s">
+        <v>115</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>102</v>
@@ -7079,12 +7080,30 @@
     <hyperlink ref="B59" r:id="rId77" display="C115804" xr:uid="{0D39CD59-35FE-4838-BF2C-F3537FBCBE49}"/>
     <hyperlink ref="B60" r:id="rId78" display="C115804" xr:uid="{5A5AE36A-D17C-4A71-82E6-B434DD4937A1}"/>
     <hyperlink ref="B61" r:id="rId79" display="C115804" xr:uid="{67E68879-A7A6-4F31-9A43-1B592135D06A}"/>
+    <hyperlink ref="C61" r:id="rId80" xr:uid="{3B3633C5-167A-477B-8941-1F666C378B90}"/>
+    <hyperlink ref="C11" r:id="rId81" xr:uid="{0BEC24AD-B191-441D-8A03-9864681D3540}"/>
+    <hyperlink ref="C21" r:id="rId82" xr:uid="{6A944AB4-5625-4325-B81D-FBF3A302F236}"/>
+    <hyperlink ref="C31" r:id="rId83" xr:uid="{C8D6CC24-90DA-4AF3-9D43-5E5BBC9E0BB3}"/>
+    <hyperlink ref="C41" r:id="rId84" xr:uid="{61A31153-DC6B-429C-81E8-807C3A37EB09}"/>
+    <hyperlink ref="C51" r:id="rId85" xr:uid="{6A06A4F2-150A-4CE6-8A0A-83D8DD606621}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Description0 xmlns="3dc215b4-4765-4137-95ef-e24fb8216673">Data and Metadata documentation will explain structure and content any QC manipulations that have been done to the data.</Description0>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3dc215b4-4765-4137-95ef-e24fb8216673">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EA3DD6FD0640724CAC6A104AA4040E53" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="115dd23f2b72febc1d2fc1b60a8090db">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3dc215b4-4765-4137-95ef-e24fb8216673" xmlns:ns3="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="43aaa9d63816c92389865776c2b79fa6" ns2:_="" ns3:_="">
     <xsd:import namespace="3dc215b4-4765-4137-95ef-e24fb8216673"/>
@@ -7341,18 +7360,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Description0 xmlns="3dc215b4-4765-4137-95ef-e24fb8216673">Data and Metadata documentation will explain structure and content any QC manipulations that have been done to the data.</Description0>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3dc215b4-4765-4137-95ef-e24fb8216673">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -7363,6 +7370,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E56C0EC-289B-41C6-9A91-258C52A8C3F5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3dc215b4-4765-4137-95ef-e24fb8216673"/>
+    <ds:schemaRef ds:uri="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A583703A-1248-4F5E-A7B5-5A620887A948}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7381,17 +7399,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E56C0EC-289B-41C6-9A91-258C52A8C3F5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3dc215b4-4765-4137-95ef-e24fb8216673"/>
-    <ds:schemaRef ds:uri="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{639AA1C1-D174-4141-87F9-3D9FF5B31776}">
   <ds:schemaRefs>

--- a/curation/draft/package12/R12_6MWT.xlsx
+++ b/curation/draft/package12/R12_6MWT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\package12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00174DB-80D9-4639-8E87-A5DACE01D909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53D2E4E-A3A1-4FE9-9901-56133E73B462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{CB90682E-B5D2-4F3C-A30B-8167A140F2EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CB90682E-B5D2-4F3C-A30B-8167A140F2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="BC_6MWT" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1794" uniqueCount="164">
   <si>
     <t>package_date</t>
   </si>
@@ -530,6 +530,9 @@
   </si>
   <si>
     <t>SIXMW1-Distance at 6 Minutes</t>
+  </si>
+  <si>
+    <t>Nominal</t>
   </si>
 </sst>
 </file>
@@ -1060,9 +1063,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18030E2E-FE19-40F7-9321-415FFA0E6A09}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1207,16 +1210,30 @@
       <c r="G4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H4"/>
+      <c r="H4" t="s">
+        <v>163</v>
+      </c>
       <c r="I4" s="8" t="s">
         <v>128</v>
       </c>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
-      <c r="M4"/>
-      <c r="O4"/>
-      <c r="Q4" s="10"/>
+      <c r="M4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -2342,6 +2359,7 @@
     <hyperlink ref="D27" r:id="rId92" display="C115804" xr:uid="{227F1913-4036-43AC-9E5D-309C47B58DAD}"/>
     <hyperlink ref="C28" r:id="rId93" display="C115804" xr:uid="{51370DE7-7CE0-4068-816C-4B408CCA5F3F}"/>
     <hyperlink ref="D28" r:id="rId94" display="C115804" xr:uid="{5EA29D7F-F00D-4BB4-82BC-CA0B661F5377}"/>
+    <hyperlink ref="N4" r:id="rId95" display="C115801" xr:uid="{C9E1F834-8535-4D78-A1FD-DD7A0AF6177A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2351,8 +2369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7D38B7-85C7-42C3-9CA2-CA2E5F60DFCE}">
   <dimension ref="A1:AG61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F82" sqref="F82"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7092,18 +7110,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Description0 xmlns="3dc215b4-4765-4137-95ef-e24fb8216673">Data and Metadata documentation will explain structure and content any QC manipulations that have been done to the data.</Description0>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3dc215b4-4765-4137-95ef-e24fb8216673">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EA3DD6FD0640724CAC6A104AA4040E53" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="115dd23f2b72febc1d2fc1b60a8090db">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3dc215b4-4765-4137-95ef-e24fb8216673" xmlns:ns3="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="43aaa9d63816c92389865776c2b79fa6" ns2:_="" ns3:_="">
     <xsd:import namespace="3dc215b4-4765-4137-95ef-e24fb8216673"/>
@@ -7360,6 +7366,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Description0 xmlns="3dc215b4-4765-4137-95ef-e24fb8216673">Data and Metadata documentation will explain structure and content any QC manipulations that have been done to the data.</Description0>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3dc215b4-4765-4137-95ef-e24fb8216673">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -7370,17 +7388,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E56C0EC-289B-41C6-9A91-258C52A8C3F5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3dc215b4-4765-4137-95ef-e24fb8216673"/>
-    <ds:schemaRef ds:uri="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A583703A-1248-4F5E-A7B5-5A620887A948}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7399,6 +7406,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E56C0EC-289B-41C6-9A91-258C52A8C3F5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3dc215b4-4765-4137-95ef-e24fb8216673"/>
+    <ds:schemaRef ds:uri="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{639AA1C1-D174-4141-87F9-3D9FF5B31776}">
   <ds:schemaRefs>
